--- a/docs/AWS Foundational Security Best Practices v1.0.0.xlsx
+++ b/docs/AWS Foundational Security Best Practices v1.0.0.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enroll/work/Dev/aws-securityhub/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangwei\AppData\Roaming\MobaXterm\home\poc\aws-securityhub-aiops\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E799C-BC4F-1F46-9DF3-AEC2B6691B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F7AF9-4835-4A54-952B-AACE6BE091B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20088" yWindow="-17676" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Foundational Security Best" sheetId="1" r:id="rId1"/>
     <sheet name="Exception List" sheetId="2" r:id="rId2"/>
-    <sheet name="Suppressed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="205">
   <si>
     <t>Severity</t>
   </si>
@@ -654,261 +653,13 @@
   </si>
   <si>
     <t>Amazon SQS queues should be encrypted at rest</t>
-  </si>
-  <si>
-    <t>EC2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELBv2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amazon Elasticsearch domains should have audit logging enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amazon Elasticsearch domains should have at least three data nodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amazon Elasticsearch domains should be configured with at least three dedicated master nodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connections to Amazon Elasticsearch domains should be encrypted using TLS 1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3 permissions granted to other Amazon Web Services accounts in bucket policies should be restricted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3 buckets should require requests to use Secure Socket Layer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3 buckets should have server-side encryption enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3 buckets should prohibit public read access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application Load Balancer should be configured to redirect all HTTP requests to HTTPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Security groups should only allow unrestricted incoming traffic for authorized ports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 instances should not use multiple ENIs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 instances should not have a public IPv4 address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i-09259120e6758beed
-i-01cf833b327be329f
-i-0c4b6fc444fb13199
-i-06bfe7fc1a2c38d97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">i-0c4b6fc444fb13199
-i-09259120e6758beed
-i-023221a27e5f00677
-i-06bfe7fc1a2c38d97
-i-06da9b3550829823b
-i-01cf833b327be329f
-i-0003acad46a9716f7
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FortiGate VPN Need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">p1000psgec20009
-p1000psgec20008
-d1011nsgec20001
-p1011psgec20000
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FortiGate VPN Need 
-Safeway IOT Need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">830b092b9dd17b93
-0b64fbbdf2c646f9
-68da1151175250ce
-53ea8cabc846439e
-f8847be5962bdece
-e556901253476ae8
-d6253706c6c77993
-1f578699676b3b21
-88b43055fcf10684
-0f86f94540ee6254
-84b8dc8dc14d3b73
-7c4aff804f7f949c
-94c4bbdcb7d55a0e
-d9290a0b5a9850f5
-e64952ef619c77be
-bf585874772f5853
-ea7c13c5dbc01f12
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, DSMP old client device only use http
-2, Internal ALB use http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">p-v-class-car-configurator
-medias2021cny
-p1015ps3pushmedia0000
-p1015ps3mbemedia0001
-p1015ps3mbemedia0000
-p1015ps3eqc0000
-p1000ps3hiexpat0000
-p1009ps3newsletter0000
-u1011ns3safeway0001
-d1011ns3safeway0001
-q1011ns3safeway0000
-p1018ps3tgapp0000
-p1018ps3dsmp0000
-q1013ns3statics0000
-u1013ns3statics0000
-d1013ns3statics0000
-techcenter-dev-techcenter-pub-s3-0000
-d1021ns3metouch0000
-d1015ns3mbemediaspreprod0000
-d1015ns3eqc0000
-d1015ns3mbemediadev0000
-d1015ns3mbemediasmmc0000
-techcenter-prod-techcenter-pub-s3-0000
-d1018ns3ismp0000
-d1018ns3dsmp0000
-d1018ns3tgapp0000
-p1013ps3statics0000
-p1011ps3safeway0001
-p1021ps3metouch0000
-p1027ps3eqc0000
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projects Need public read bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1010ns3oabdos0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ths bucket should be deleted. But can't be deleted by wrong policy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">techcenter-dev-techcenter-pub-s3-0000
-u1009ns3mbb0000
-q1009ns3mbb0000
-p0000ps3alb0000
-p1009ps3mbb0000
-p1009ps3operations0000
-techcenter-prod-techcenter-pub-s3-0000
-p1000p-tool-script
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects Need </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1009nes0000
-d1015nesescluster0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1009nes0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beijing Region does not support this control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -966,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -975,27 +726,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1282,14 +1012,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1052,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1206,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1498,7 +1228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1305,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1349,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1371,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1652,7 +1382,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +1448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1740,7 +1470,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +1481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1503,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1514,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1525,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1547,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +1558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1850,7 +1580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1872,7 +1602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1613,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1635,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1927,7 +1657,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1938,7 +1668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1701,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +1712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +1723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +1734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +1745,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -2029,6 +1759,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2036,20 +1767,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="83.83203125" customWidth="1"/>
-    <col min="4" max="4" width="77.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.3046875" customWidth="1"/>
+    <col min="2" max="2" width="39.4609375" customWidth="1"/>
+    <col min="3" max="3" width="83.84375" customWidth="1"/>
+    <col min="4" max="4" width="77.69140625" customWidth="1"/>
     <col min="5" max="5" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +1797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +1814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +1831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2117,7 +1848,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +1865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +1882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +1899,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2185,7 +1916,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +1933,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +1950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +1967,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2253,7 +1984,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2270,7 +2001,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2304,7 +2035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2052,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2355,7 +2086,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +2137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -2423,208 +2154,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA70334-6418-BA4F-9A85-6BF1D851BF23}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="93.1640625" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.5" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>